--- a/documents/単体テスト仕様書_タスク編集機能.xlsx
+++ b/documents/単体テスト仕様書_タスク編集機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user34\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B91980E-17D5-473E-87AB-682E11EB517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31ACFE2-AD46-4CFA-A533-1AD44DF7412E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{130D3DAE-E7CC-4463-AC9D-135A99CA0431}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{130D3DAE-E7CC-4463-AC9D-135A99CA0431}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書兼報告書" sheetId="1" r:id="rId1"/>
@@ -493,19 +493,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>タスク名が「タスク3」の編集するボタンを押下する</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>編集失敗画面へ遷移すること</t>
     <rPh sb="0" eb="6">
       <t>ヘンシュウシッパイガメン</t>
@@ -555,25 +542,6 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>タスク名が「タスク3」の行の「編集するボタン」まで「…」を展開し、buttonタグを表示させる</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テンカイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1015,6 +983,44 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク名が「タスク編集」の行の「編集するボタン」まで「…」を展開し、buttonタグを表示させる</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タスク名が「タスク編集」の編集するボタンを押下する</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1272,91 +1278,91 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1696,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1493368B-FD8E-4309-A490-03D000701908}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15.75"/>
@@ -1712,70 +1718,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="34"/>
+      <c r="P1" s="28"/>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="34"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="29">
         <v>45581</v>
       </c>
-      <c r="P2" s="36"/>
+      <c r="P2" s="30"/>
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="4"/>
@@ -1805,39 +1811,39 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="25" t="s">
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="27"/>
+      <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="39" t="s">
-        <v>82</v>
+      <c r="C5" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1849,18 +1855,18 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="39" t="s">
-        <v>83</v>
+      <c r="C6" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1872,18 +1878,18 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -1895,18 +1901,18 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1918,12 +1924,12 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="7"/>
@@ -1939,12 +1945,12 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="21"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="7">
@@ -1964,12 +1970,12 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
       <c r="A11" s="7"/>
@@ -1985,41 +1991,41 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>70</v>
+      <c r="C12" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
       <c r="A13" s="7"/>
@@ -2029,18 +2035,18 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" spans="1:19" ht="82.5" customHeight="1">
       <c r="A14" s="7"/>
@@ -2054,22 +2060,22 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="12" t="s">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
       <c r="A15" s="7"/>
@@ -2079,18 +2085,18 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
       <c r="A16" s="7"/>
@@ -2104,18 +2110,18 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="A17" s="7"/>
@@ -2127,41 +2133,41 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="21"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="17"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="1:19" ht="61.5" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="39" t="s">
-        <v>71</v>
+      <c r="C18" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="7"/>
@@ -2173,18 +2179,18 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="17"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="7"/>
@@ -2196,64 +2202,64 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="17"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="21"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
     </row>
     <row r="22" spans="1:19" ht="44.25" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="7"/>
@@ -2265,41 +2271,41 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="17"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="36.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="39" t="s">
-        <v>72</v>
+      <c r="C24" s="36" t="s">
+        <v>70</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="17"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="7"/>
@@ -2311,18 +2317,18 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="21"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="7"/>
@@ -2334,18 +2340,18 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="21"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="17"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="7"/>
@@ -2357,18 +2363,18 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="17"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="7"/>
@@ -2378,18 +2384,18 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="21"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="17"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="7"/>
@@ -2403,22 +2409,22 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19" t="s">
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O29" s="20"/>
-      <c r="P29" s="21"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="17"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
     </row>
     <row r="30" spans="1:19" ht="39" customHeight="1">
       <c r="A30" s="7"/>
@@ -2430,22 +2436,22 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O30" s="16"/>
+      <c r="P30" s="17"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="7"/>
@@ -2455,18 +2461,18 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="21"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="17"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
       <c r="A32" s="7">
@@ -2480,18 +2486,18 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="21"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="17"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
       <c r="A33" s="7"/>
@@ -2501,18 +2507,18 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="21"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="17"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="7"/>
@@ -2526,64 +2532,64 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="21"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="17"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
     </row>
     <row r="35" spans="1:19" ht="36.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="39" t="s">
-        <v>74</v>
+      <c r="C35" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="21"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="17"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
     </row>
     <row r="36" spans="1:19" ht="40.5" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="39" t="s">
-        <v>51</v>
+      <c r="C36" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="21"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="17"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="7"/>
@@ -2595,18 +2601,18 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="21"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="17"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="7"/>
@@ -2616,47 +2622,47 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="21"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="17"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
     </row>
     <row r="39" spans="1:19" ht="35.25" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O39" s="20"/>
-      <c r="P39" s="21"/>
+      <c r="H39" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" s="16"/>
+      <c r="P39" s="17"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="7"/>
@@ -2666,18 +2672,18 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="21"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="17"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
       <c r="A41" s="7">
@@ -2691,41 +2697,41 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="21"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="17"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="21"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="17"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="7"/>
@@ -2735,18 +2741,18 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="21"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="17"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="7"/>
@@ -2754,214 +2760,214 @@
         <v>26</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="21"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="17"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="21"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="17"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="21"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="17"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="21"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="17"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
-      <c r="C48" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="21"/>
+      <c r="C48" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="17"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="23"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="19"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="21"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="17"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="23"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="19"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="O50" s="20"/>
-      <c r="P50" s="21"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="17"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="23"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="19"/>
     </row>
     <row r="51" spans="1:19" ht="48.75" customHeight="1">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O51" s="20"/>
-      <c r="P51" s="21"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="O51" s="16"/>
+      <c r="P51" s="17"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="23"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="19"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="21"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="17"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="23"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="19"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1">
       <c r="A53" s="7">
@@ -2975,41 +2981,41 @@
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="21"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="17"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="23"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="19"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="21"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="17"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1">
       <c r="A55" s="7"/>
@@ -3019,18 +3025,18 @@
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="21"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="17"/>
       <c r="Q55" s="7"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="23"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="19"/>
     </row>
     <row r="56" spans="1:19" ht="30" customHeight="1">
       <c r="A56" s="7"/>
@@ -3038,137 +3044,137 @@
         <v>26</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="21"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="17"/>
       <c r="Q56" s="7"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="23"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="19"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="21"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="17"/>
       <c r="Q57" s="7"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="23"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="19"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="21"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="17"/>
       <c r="Q58" s="7"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="23"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="19"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="21"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="17"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="23"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="19"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
-      <c r="C60" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="21"/>
+      <c r="C60" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="17"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="23"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="19"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="21"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="17"/>
       <c r="Q61" s="7"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
     </row>
     <row r="62" spans="1:19" ht="30" customHeight="1">
       <c r="A62" s="7"/>
@@ -3176,28 +3182,28 @@
         <v>20</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
-      <c r="N62" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O62" s="20"/>
-      <c r="P62" s="21"/>
+      <c r="N62" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="O62" s="16"/>
+      <c r="P62" s="17"/>
       <c r="Q62" s="8"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
     </row>
     <row r="63" spans="1:19" ht="30" customHeight="1">
       <c r="A63" s="7"/>
@@ -3213,12 +3219,12 @@
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="21"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="17"/>
       <c r="Q63" s="8"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
     </row>
     <row r="64" spans="1:19" ht="30" customHeight="1">
       <c r="A64" s="7">
@@ -3238,12 +3244,12 @@
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="21"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="17"/>
       <c r="Q64" s="8"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
     </row>
     <row r="65" spans="1:19" ht="30" customHeight="1">
       <c r="A65" s="7"/>
@@ -3259,12 +3265,12 @@
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="21"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="17"/>
       <c r="Q65" s="8"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:19" ht="30" customHeight="1">
       <c r="A66" s="7"/>
@@ -3272,7 +3278,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -3284,18 +3290,18 @@
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="21"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="17"/>
       <c r="Q66" s="8"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
     </row>
     <row r="67" spans="1:19" ht="30" customHeight="1">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -3307,18 +3313,18 @@
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="21"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="17"/>
       <c r="Q67" s="8"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
     </row>
     <row r="68" spans="1:19" ht="30" customHeight="1">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
@@ -3330,62 +3336,62 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="21"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="17"/>
       <c r="Q68" s="8"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
     </row>
     <row r="69" spans="1:19" ht="30" customHeight="1">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="21"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="17"/>
       <c r="Q69" s="7"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
     </row>
     <row r="70" spans="1:19" ht="50.25" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
-      <c r="N70" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O70" s="20"/>
-      <c r="P70" s="21"/>
+      <c r="N70" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O70" s="16"/>
+      <c r="P70" s="17"/>
       <c r="Q70" s="8"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
     </row>
     <row r="71" spans="1:19" ht="30" customHeight="1">
       <c r="A71" s="7"/>
@@ -3401,12 +3407,12 @@
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="21"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="17"/>
       <c r="Q71" s="8"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
     </row>
     <row r="72" spans="1:19" ht="30" customHeight="1">
       <c r="A72" s="7"/>
@@ -3422,12 +3428,12 @@
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="21"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="17"/>
       <c r="Q72" s="8"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
     </row>
     <row r="73" spans="1:19" ht="30" customHeight="1">
       <c r="A73" s="7"/>
@@ -3443,128 +3449,213 @@
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="21"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="17"/>
       <c r="Q73" s="8"/>
-      <c r="R73" s="15"/>
-      <c r="S73" s="15"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
     </row>
     <row r="74" spans="1:19" ht="30" customHeight="1">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="21"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="17"/>
       <c r="Q74" s="7"/>
-      <c r="R74" s="15"/>
-      <c r="S74" s="15"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="293">
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:M62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:M64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:M67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:M68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:M72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:M71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:M70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
     <mergeCell ref="C57:G57"/>
     <mergeCell ref="H57:M57"/>
     <mergeCell ref="N57:P57"/>
@@ -3589,183 +3680,98 @@
     <mergeCell ref="H58:M58"/>
     <mergeCell ref="N58:P58"/>
     <mergeCell ref="R58:S58"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:M72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:M71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:M64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:M68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:M70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:M62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="R51:S51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/単体テスト仕様書_タスク編集機能.xlsx
+++ b/documents/単体テスト仕様書_タスク編集機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user34\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31ACFE2-AD46-4CFA-A533-1AD44DF7412E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8BC47-810B-4F61-A426-AC1171BD16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{130D3DAE-E7CC-4463-AC9D-135A99CA0431}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{130D3DAE-E7CC-4463-AC9D-135A99CA0431}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書兼報告書" sheetId="1" r:id="rId1"/>
@@ -864,29 +864,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>一行目のカラムに格納されているデータが
-編集内容と一致していること</t>
-    <rPh sb="0" eb="1">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ギョウメ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Elementsタブのhtmlからtableタグ内の「…」を
 クリックして中身を展開する</t>
     <rPh sb="24" eb="25">
@@ -1021,6 +998,29 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>一行目のカラムに格納されているデータが
+編集内容と一致していること。</t>
+    <rPh sb="0" eb="1">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イッチ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1295,74 +1295,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1702,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1493368B-FD8E-4309-A490-03D000701908}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:G39"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15.75"/>
@@ -1718,70 +1718,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="28"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="28"/>
+      <c r="S1" s="34"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="35">
         <v>45581</v>
       </c>
-      <c r="P2" s="30"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="4"/>
@@ -1811,39 +1811,39 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="33" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="33" t="s">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="35"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="36" t="s">
-        <v>80</v>
+      <c r="C5" s="22" t="s">
+        <v>79</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1855,18 +1855,18 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="21"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="36" t="s">
-        <v>81</v>
+      <c r="C6" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -1878,12 +1878,12 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="7"/>
@@ -1901,12 +1901,12 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="21"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="7"/>
@@ -1924,12 +1924,12 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="40"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="7"/>
@@ -1949,8 +1949,8 @@
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="7">
@@ -1974,8 +1974,8 @@
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
       <c r="A11" s="7"/>
@@ -1995,15 +1995,15 @@
       <c r="O11" s="16"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="11"/>
@@ -2024,8 +2024,8 @@
       <c r="O12" s="16"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
       <c r="A13" s="7"/>
@@ -2045,8 +2045,8 @@
       <c r="O13" s="16"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
     </row>
     <row r="14" spans="1:19" ht="82.5" customHeight="1">
       <c r="A14" s="7"/>
@@ -2068,14 +2068,14 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="19" t="s">
         <v>41</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
       <c r="A15" s="7"/>
@@ -2095,8 +2095,8 @@
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
       <c r="A16" s="7"/>
@@ -2120,8 +2120,8 @@
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="A17" s="7"/>
@@ -2143,13 +2143,13 @@
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:19" ht="61.5" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="22" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="11"/>
@@ -2166,8 +2166,8 @@
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="7"/>
@@ -2189,8 +2189,8 @@
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="7"/>
@@ -2212,13 +2212,13 @@
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="24" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="11"/>
@@ -2235,13 +2235,13 @@
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
     </row>
     <row r="22" spans="1:19" ht="44.25" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="22" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="11"/>
@@ -2258,8 +2258,8 @@
       <c r="O22" s="16"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="7"/>
@@ -2281,13 +2281,13 @@
       <c r="O23" s="16"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
     </row>
     <row r="24" spans="1:19" ht="36.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="22" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="11"/>
@@ -2304,8 +2304,8 @@
       <c r="O24" s="16"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="7"/>
@@ -2327,8 +2327,8 @@
       <c r="O25" s="16"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="7"/>
@@ -2350,8 +2350,8 @@
       <c r="O26" s="16"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="7"/>
@@ -2373,8 +2373,8 @@
       <c r="O27" s="16"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="7"/>
@@ -2394,8 +2394,8 @@
       <c r="O28" s="16"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="7"/>
@@ -2423,8 +2423,8 @@
       <c r="O29" s="16"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
     </row>
     <row r="30" spans="1:19" ht="39" customHeight="1">
       <c r="A30" s="7"/>
@@ -2444,14 +2444,14 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="21" t="s">
-        <v>71</v>
+      <c r="N30" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="7"/>
@@ -2471,8 +2471,8 @@
       <c r="O31" s="16"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
       <c r="A32" s="7">
@@ -2496,8 +2496,8 @@
       <c r="O32" s="16"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
       <c r="A33" s="7"/>
@@ -2517,8 +2517,8 @@
       <c r="O33" s="16"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="7"/>
@@ -2542,14 +2542,14 @@
       <c r="O34" s="16"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
     </row>
     <row r="35" spans="1:19" ht="36.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="36" t="s">
-        <v>72</v>
+      <c r="C35" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -2565,14 +2565,14 @@
       <c r="O35" s="16"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
     </row>
     <row r="36" spans="1:19" ht="40.5" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="36" t="s">
-        <v>82</v>
+      <c r="C36" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -2588,8 +2588,8 @@
       <c r="O36" s="16"/>
       <c r="P36" s="17"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="7"/>
@@ -2611,8 +2611,8 @@
       <c r="O37" s="16"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="7"/>
@@ -2632,8 +2632,8 @@
       <c r="O38" s="16"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
     </row>
     <row r="39" spans="1:19" ht="35.25" customHeight="1">
       <c r="A39" s="7"/>
@@ -2641,13 +2641,13 @@
         <v>46</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="38" t="s">
+      <c r="H39" s="23" t="s">
         <v>49</v>
       </c>
       <c r="I39" s="13"/>
@@ -2661,8 +2661,8 @@
       <c r="O39" s="16"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="7"/>
@@ -2682,8 +2682,8 @@
       <c r="O40" s="16"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
       <c r="A41" s="7">
@@ -2707,8 +2707,8 @@
       <c r="O41" s="16"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="7"/>
@@ -2730,8 +2730,8 @@
       <c r="O42" s="16"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="7"/>
@@ -2751,8 +2751,8 @@
       <c r="O43" s="16"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="7"/>
@@ -2776,14 +2776,14 @@
       <c r="O44" s="16"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -2799,8 +2799,8 @@
       <c r="O45" s="16"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="7"/>
@@ -2822,14 +2822,14 @@
       <c r="O46" s="16"/>
       <c r="P46" s="17"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2845,8 +2845,8 @@
       <c r="O47" s="16"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1">
       <c r="A48" s="7"/>
@@ -2868,8 +2868,8 @@
       <c r="O48" s="16"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="19"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="40"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1">
       <c r="A49" s="7"/>
@@ -2889,8 +2889,8 @@
       <c r="O49" s="16"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="19"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="40"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1">
       <c r="A50" s="7"/>
@@ -2918,8 +2918,8 @@
       <c r="O50" s="16"/>
       <c r="P50" s="17"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="19"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="40"/>
     </row>
     <row r="51" spans="1:19" ht="48.75" customHeight="1">
       <c r="A51" s="7"/>
@@ -2939,14 +2939,14 @@
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="14"/>
-      <c r="N51" s="21" t="s">
+      <c r="N51" s="19" t="s">
         <v>58</v>
       </c>
       <c r="O51" s="16"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="19"/>
+      <c r="R51" s="39"/>
+      <c r="S51" s="40"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1">
       <c r="A52" s="7"/>
@@ -2966,8 +2966,8 @@
       <c r="O52" s="16"/>
       <c r="P52" s="17"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="19"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="40"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1">
       <c r="A53" s="7">
@@ -2991,8 +2991,8 @@
       <c r="O53" s="16"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="19"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="40"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1">
       <c r="A54" s="7"/>
@@ -3014,8 +3014,8 @@
       <c r="O54" s="16"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1">
       <c r="A55" s="7"/>
@@ -3035,8 +3035,8 @@
       <c r="O55" s="16"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="7"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="19"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="40"/>
     </row>
     <row r="56" spans="1:19" ht="30" customHeight="1">
       <c r="A56" s="7"/>
@@ -3060,8 +3060,8 @@
       <c r="O56" s="16"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="7"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="19"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="40"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1">
       <c r="A57" s="7"/>
@@ -3083,8 +3083,8 @@
       <c r="O57" s="16"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="7"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="19"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="40"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1">
       <c r="A58" s="7"/>
@@ -3106,8 +3106,8 @@
       <c r="O58" s="16"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="7"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="19"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="40"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1">
       <c r="A59" s="7"/>
@@ -3129,8 +3129,8 @@
       <c r="O59" s="16"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="19"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="40"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1">
       <c r="A60" s="7"/>
@@ -3152,8 +3152,8 @@
       <c r="O60" s="16"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="19"/>
+      <c r="R60" s="39"/>
+      <c r="S60" s="40"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1">
       <c r="A61" s="7"/>
@@ -3173,8 +3173,8 @@
       <c r="O61" s="16"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="7"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
     </row>
     <row r="62" spans="1:19" ht="30" customHeight="1">
       <c r="A62" s="7"/>
@@ -3202,8 +3202,8 @@
       <c r="O62" s="16"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="8"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
     </row>
     <row r="63" spans="1:19" ht="30" customHeight="1">
       <c r="A63" s="7"/>
@@ -3223,8 +3223,8 @@
       <c r="O63" s="16"/>
       <c r="P63" s="17"/>
       <c r="Q63" s="8"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
     </row>
     <row r="64" spans="1:19" ht="30" customHeight="1">
       <c r="A64" s="7">
@@ -3248,8 +3248,8 @@
       <c r="O64" s="16"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="8"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
     </row>
     <row r="65" spans="1:19" ht="30" customHeight="1">
       <c r="A65" s="7"/>
@@ -3269,8 +3269,8 @@
       <c r="O65" s="16"/>
       <c r="P65" s="17"/>
       <c r="Q65" s="8"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
     </row>
     <row r="66" spans="1:19" ht="30" customHeight="1">
       <c r="A66" s="7"/>
@@ -3278,7 +3278,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
@@ -3294,8 +3294,8 @@
       <c r="O66" s="16"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="8"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
     </row>
     <row r="67" spans="1:19" ht="30" customHeight="1">
       <c r="A67" s="7"/>
@@ -3317,8 +3317,8 @@
       <c r="O67" s="16"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="8"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
     </row>
     <row r="68" spans="1:19" ht="30" customHeight="1">
       <c r="A68" s="7"/>
@@ -3340,8 +3340,8 @@
       <c r="O68" s="16"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="8"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
     </row>
     <row r="69" spans="1:19" ht="30" customHeight="1">
       <c r="A69" s="7"/>
@@ -3361,37 +3361,37 @@
       <c r="O69" s="16"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="7"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
     </row>
     <row r="70" spans="1:19" ht="50.25" customHeight="1">
       <c r="A70" s="7"/>
       <c r="B70" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
-      <c r="N70" s="21" t="s">
-        <v>77</v>
+      <c r="N70" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="O70" s="16"/>
       <c r="P70" s="17"/>
       <c r="Q70" s="8"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
     </row>
     <row r="71" spans="1:19" ht="30" customHeight="1">
       <c r="A71" s="7"/>
@@ -3411,8 +3411,8 @@
       <c r="O71" s="16"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="8"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
     </row>
     <row r="72" spans="1:19" ht="30" customHeight="1">
       <c r="A72" s="7"/>
@@ -3432,8 +3432,8 @@
       <c r="O72" s="16"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="8"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
     </row>
     <row r="73" spans="1:19" ht="30" customHeight="1">
       <c r="A73" s="7"/>
@@ -3453,8 +3453,8 @@
       <c r="O73" s="16"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="8"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
     </row>
     <row r="74" spans="1:19" ht="30" customHeight="1">
       <c r="A74" s="7"/>
@@ -3474,11 +3474,280 @@
       <c r="O74" s="16"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="7"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="293">
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:M62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:M64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:M68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:M70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:M72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:M71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:M57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:M59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:M58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:S42"/>
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="H46:M46"/>
     <mergeCell ref="N46:P46"/>
@@ -3503,275 +3772,6 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:M7"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:M57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:M59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:M58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:M72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:M71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:M64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:M67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:M68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:M70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:M62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="H54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="N51:P51"/>
-    <mergeCell ref="R51:S51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/単体テスト仕様書_タスク編集機能.xlsx
+++ b/documents/単体テスト仕様書_タスク編集機能.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user34\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UN02\Documents\project\auttask\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8BC47-810B-4F61-A426-AC1171BD16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E2C486-1673-4E84-B6A8-14EEE9B7D997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{130D3DAE-E7CC-4463-AC9D-135A99CA0431}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書兼報告書" sheetId="1" r:id="rId1"/>
+    <sheet name="エビデンス" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1295,35 +1296,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1358,11 +1341,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1381,6 +1382,935 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>678091</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>234596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FCCB85-BEA4-2052-E229-CB802F8855B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="511017"/>
+          <a:ext cx="9574441" cy="5200454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AEB5D3-6459-4412-EC27-329A8CB7EE75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="5943600"/>
+          <a:ext cx="9544050" cy="4514850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>679946</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5FD5C9-1A1D-64C6-68C7-A5BE0DA6686E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="679946" y="15725776"/>
+          <a:ext cx="9616580" cy="4743450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>234750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C58E73-9035-34EA-F1B4-F4DD9083AAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704849" y="10712250"/>
+          <a:ext cx="9553575" cy="4518225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32172</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684B65EA-DF75-0108-F640-57AEE5A5FCF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717972" y="20974050"/>
+          <a:ext cx="9559504" cy="5438775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>2593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2672D68E-F593-ECD1-C301-8C88764F54F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704849" y="26910718"/>
+          <a:ext cx="9591675" cy="5293307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47799</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2DB759-75D4-9D41-B5F7-DD80AD59ED92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733599" y="32613600"/>
+          <a:ext cx="9534352" cy="5896996"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673695</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11341</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA08D643-A05D-F82C-05B3-E3148EF233A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673695" y="39081075"/>
+          <a:ext cx="9624646" cy="4743450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24606</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FF3DE4-7F76-B9FD-CDD8-D6B4F1149EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="710406" y="44310301"/>
+          <a:ext cx="9557544" cy="5695950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18652</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC40B70-71B1-296C-F07F-6E102E8AB652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704452" y="50492026"/>
+          <a:ext cx="9563498" cy="4991100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14806</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9046FA62-0473-43B2-9B9A-C16626E91E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="700606" y="55997475"/>
+          <a:ext cx="9605443" cy="4733925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>5049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F37B9BC-4CCF-8B3C-4665-E4CC17829F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="61203174"/>
+          <a:ext cx="9553575" cy="5224176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>23973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>229621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C00977-F191-BD3F-9262-1AF49FC880C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="66937098"/>
+          <a:ext cx="9525000" cy="5206273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>667792</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5437</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E36347-5EDB-AEC4-1B5B-CCA5D309893F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="667792" y="72647175"/>
+          <a:ext cx="9624645" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25126</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1C7C07-DCBD-BB66-0BF1-663E26C556B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="710926" y="78124051"/>
+          <a:ext cx="9557024" cy="4762500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>11924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F71000B-3344-99B1-0908-38DFEEC5A9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="83355674"/>
+          <a:ext cx="9591675" cy="5922151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3819</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C5E0F8-57CD-CCD8-0A82-03069A76663F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="689619" y="89782651"/>
+          <a:ext cx="9587856" cy="5200649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2730</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>678089</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051E1117-3CD3-6420-893B-0DD0E3CDD222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688530" y="95269050"/>
+          <a:ext cx="9590759" cy="5229225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38719</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11340</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE9495A-E5D4-C2DF-79E8-7AA4CE3B0A58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="724519" y="100965000"/>
+          <a:ext cx="9573821" cy="5219700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14733</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>467</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964122E5-8CE5-ABE4-BD4A-A1B30A729CE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="700533" y="106699050"/>
+          <a:ext cx="9576941" cy="4714875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22796</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A24476E-BC57-8A73-2BBA-1B9CAF8F4839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708596" y="111918750"/>
+          <a:ext cx="9549829" cy="5219700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1702,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1493368B-FD8E-4309-A490-03D000701908}">
   <dimension ref="A1:S74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30:P30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="15.75"/>
@@ -1718,70 +2648,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="34"/>
+      <c r="P1" s="28"/>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="34"/>
+      <c r="S1" s="28"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="35">
+      <c r="O2" s="29">
         <v>45581</v>
       </c>
-      <c r="P2" s="36"/>
+      <c r="P2" s="30"/>
       <c r="Q2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="38"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" ht="11.25" customHeight="1">
       <c r="A3" s="4"/>
@@ -1811,38 +2741,38 @@
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="25" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="25" t="s">
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="27"/>
+      <c r="S4" s="35"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="36" t="s">
         <v>79</v>
       </c>
       <c r="D5" s="11"/>
@@ -1855,17 +2785,17 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="36" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="11"/>
@@ -1878,12 +2808,12 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1">
       <c r="A7" s="7"/>
@@ -1901,12 +2831,12 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1">
       <c r="A8" s="7"/>
@@ -1924,12 +2854,12 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="38"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1">
       <c r="A9" s="7"/>
@@ -1949,8 +2879,8 @@
       <c r="O9" s="16"/>
       <c r="P9" s="17"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1">
       <c r="A10" s="7">
@@ -1974,8 +2904,8 @@
       <c r="O10" s="16"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1">
       <c r="A11" s="7"/>
@@ -1995,15 +2925,15 @@
       <c r="O11" s="16"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="36" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="11"/>
@@ -2024,8 +2954,8 @@
       <c r="O12" s="16"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:19" ht="30" customHeight="1">
       <c r="A13" s="7"/>
@@ -2045,8 +2975,8 @@
       <c r="O13" s="16"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" spans="1:19" ht="82.5" customHeight="1">
       <c r="A14" s="7"/>
@@ -2068,14 +2998,14 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="21" t="s">
         <v>41</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:19" ht="30" customHeight="1">
       <c r="A15" s="7"/>
@@ -2095,8 +3025,8 @@
       <c r="O15" s="16"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
     </row>
     <row r="16" spans="1:19" ht="30" customHeight="1">
       <c r="A16" s="7"/>
@@ -2120,8 +3050,8 @@
       <c r="O16" s="16"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
     </row>
     <row r="17" spans="1:19" ht="30" customHeight="1">
       <c r="A17" s="7"/>
@@ -2143,13 +3073,13 @@
       <c r="O17" s="16"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
     </row>
     <row r="18" spans="1:19" ht="61.5" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="36" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="11"/>
@@ -2166,8 +3096,8 @@
       <c r="O18" s="16"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
     </row>
     <row r="19" spans="1:19" ht="30" customHeight="1">
       <c r="A19" s="7"/>
@@ -2189,8 +3119,8 @@
       <c r="O19" s="16"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
     </row>
     <row r="20" spans="1:19" ht="30" customHeight="1">
       <c r="A20" s="7"/>
@@ -2212,13 +3142,13 @@
       <c r="O20" s="16"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
     </row>
     <row r="21" spans="1:19" ht="30" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="11"/>
@@ -2235,13 +3165,13 @@
       <c r="O21" s="16"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
     </row>
     <row r="22" spans="1:19" ht="44.25" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="11"/>
@@ -2258,8 +3188,8 @@
       <c r="O22" s="16"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
     </row>
     <row r="23" spans="1:19" ht="30" customHeight="1">
       <c r="A23" s="7"/>
@@ -2281,13 +3211,13 @@
       <c r="O23" s="16"/>
       <c r="P23" s="17"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
     </row>
     <row r="24" spans="1:19" ht="36.75" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="36" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="11"/>
@@ -2304,8 +3234,8 @@
       <c r="O24" s="16"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="30" customHeight="1">
       <c r="A25" s="7"/>
@@ -2327,8 +3257,8 @@
       <c r="O25" s="16"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
     </row>
     <row r="26" spans="1:19" ht="30" customHeight="1">
       <c r="A26" s="7"/>
@@ -2350,8 +3280,8 @@
       <c r="O26" s="16"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
     </row>
     <row r="27" spans="1:19" ht="30" customHeight="1">
       <c r="A27" s="7"/>
@@ -2373,8 +3303,8 @@
       <c r="O27" s="16"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="30" customHeight="1">
       <c r="A28" s="7"/>
@@ -2394,8 +3324,8 @@
       <c r="O28" s="16"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
     </row>
     <row r="29" spans="1:19" ht="30" customHeight="1">
       <c r="A29" s="7"/>
@@ -2423,8 +3353,8 @@
       <c r="O29" s="16"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
     </row>
     <row r="30" spans="1:19" ht="39" customHeight="1">
       <c r="A30" s="7"/>
@@ -2444,14 +3374,14 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="21" t="s">
         <v>83</v>
       </c>
       <c r="O30" s="16"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
     </row>
     <row r="31" spans="1:19" ht="30" customHeight="1">
       <c r="A31" s="7"/>
@@ -2471,8 +3401,8 @@
       <c r="O31" s="16"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
     </row>
     <row r="32" spans="1:19" ht="30" customHeight="1">
       <c r="A32" s="7">
@@ -2496,8 +3426,8 @@
       <c r="O32" s="16"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
     </row>
     <row r="33" spans="1:19" ht="30" customHeight="1">
       <c r="A33" s="7"/>
@@ -2517,8 +3447,8 @@
       <c r="O33" s="16"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1">
       <c r="A34" s="7"/>
@@ -2542,13 +3472,13 @@
       <c r="O34" s="16"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
     </row>
     <row r="35" spans="1:19" ht="36.75" customHeight="1">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="36" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="11"/>
@@ -2565,13 +3495,13 @@
       <c r="O35" s="16"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
     </row>
     <row r="36" spans="1:19" ht="40.5" customHeight="1">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="36" t="s">
         <v>81</v>
       </c>
       <c r="D36" s="11"/>
@@ -2588,8 +3518,8 @@
       <c r="O36" s="16"/>
       <c r="P36" s="17"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
     </row>
     <row r="37" spans="1:19" ht="30" customHeight="1">
       <c r="A37" s="7"/>
@@ -2611,8 +3541,8 @@
       <c r="O37" s="16"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="7"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
     </row>
     <row r="38" spans="1:19" ht="30" customHeight="1">
       <c r="A38" s="7"/>
@@ -2632,8 +3562,8 @@
       <c r="O38" s="16"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="7"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
     </row>
     <row r="39" spans="1:19" ht="35.25" customHeight="1">
       <c r="A39" s="7"/>
@@ -2647,7 +3577,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="23" t="s">
+      <c r="H39" s="40" t="s">
         <v>49</v>
       </c>
       <c r="I39" s="13"/>
@@ -2661,8 +3591,8 @@
       <c r="O39" s="16"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="7"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
     </row>
     <row r="40" spans="1:19" ht="30" customHeight="1">
       <c r="A40" s="7"/>
@@ -2682,8 +3612,8 @@
       <c r="O40" s="16"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="7"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
     </row>
     <row r="41" spans="1:19" ht="30" customHeight="1">
       <c r="A41" s="7">
@@ -2707,8 +3637,8 @@
       <c r="O41" s="16"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="7"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
     </row>
     <row r="42" spans="1:19" ht="30" customHeight="1">
       <c r="A42" s="7"/>
@@ -2730,8 +3660,8 @@
       <c r="O42" s="16"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="7"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
     </row>
     <row r="43" spans="1:19" ht="30" customHeight="1">
       <c r="A43" s="7"/>
@@ -2751,8 +3681,8 @@
       <c r="O43" s="16"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="7"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
     </row>
     <row r="44" spans="1:19" ht="30" customHeight="1">
       <c r="A44" s="7"/>
@@ -2776,8 +3706,8 @@
       <c r="O44" s="16"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="7"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
     </row>
     <row r="45" spans="1:19" ht="30" customHeight="1">
       <c r="A45" s="7"/>
@@ -2799,8 +3729,8 @@
       <c r="O45" s="16"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="7"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
     </row>
     <row r="46" spans="1:19" ht="30" customHeight="1">
       <c r="A46" s="7"/>
@@ -2822,8 +3752,8 @@
       <c r="O46" s="16"/>
       <c r="P46" s="17"/>
       <c r="Q46" s="7"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
     </row>
     <row r="47" spans="1:19" ht="30" customHeight="1">
       <c r="A47" s="7"/>
@@ -2845,8 +3775,8 @@
       <c r="O47" s="16"/>
       <c r="P47" s="17"/>
       <c r="Q47" s="7"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
     </row>
     <row r="48" spans="1:19" ht="30" customHeight="1">
       <c r="A48" s="7"/>
@@ -2868,8 +3798,8 @@
       <c r="O48" s="16"/>
       <c r="P48" s="17"/>
       <c r="Q48" s="7"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="40"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="19"/>
     </row>
     <row r="49" spans="1:19" ht="30" customHeight="1">
       <c r="A49" s="7"/>
@@ -2889,8 +3819,8 @@
       <c r="O49" s="16"/>
       <c r="P49" s="17"/>
       <c r="Q49" s="7"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="40"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="19"/>
     </row>
     <row r="50" spans="1:19" ht="30" customHeight="1">
       <c r="A50" s="7"/>
@@ -2918,8 +3848,8 @@
       <c r="O50" s="16"/>
       <c r="P50" s="17"/>
       <c r="Q50" s="7"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="40"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="19"/>
     </row>
     <row r="51" spans="1:19" ht="48.75" customHeight="1">
       <c r="A51" s="7"/>
@@ -2939,14 +3869,14 @@
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
       <c r="M51" s="14"/>
-      <c r="N51" s="19" t="s">
+      <c r="N51" s="21" t="s">
         <v>58</v>
       </c>
       <c r="O51" s="16"/>
       <c r="P51" s="17"/>
       <c r="Q51" s="7"/>
-      <c r="R51" s="39"/>
-      <c r="S51" s="40"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="19"/>
     </row>
     <row r="52" spans="1:19" ht="30" customHeight="1">
       <c r="A52" s="7"/>
@@ -2966,8 +3896,8 @@
       <c r="O52" s="16"/>
       <c r="P52" s="17"/>
       <c r="Q52" s="7"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="40"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="19"/>
     </row>
     <row r="53" spans="1:19" ht="30" customHeight="1">
       <c r="A53" s="7">
@@ -2991,8 +3921,8 @@
       <c r="O53" s="16"/>
       <c r="P53" s="17"/>
       <c r="Q53" s="7"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="40"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="19"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1">
       <c r="A54" s="7"/>
@@ -3014,8 +3944,8 @@
       <c r="O54" s="16"/>
       <c r="P54" s="17"/>
       <c r="Q54" s="7"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
     </row>
     <row r="55" spans="1:19" ht="30" customHeight="1">
       <c r="A55" s="7"/>
@@ -3035,8 +3965,8 @@
       <c r="O55" s="16"/>
       <c r="P55" s="17"/>
       <c r="Q55" s="7"/>
-      <c r="R55" s="39"/>
-      <c r="S55" s="40"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="19"/>
     </row>
     <row r="56" spans="1:19" ht="30" customHeight="1">
       <c r="A56" s="7"/>
@@ -3060,8 +3990,8 @@
       <c r="O56" s="16"/>
       <c r="P56" s="17"/>
       <c r="Q56" s="7"/>
-      <c r="R56" s="39"/>
-      <c r="S56" s="40"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="19"/>
     </row>
     <row r="57" spans="1:19" ht="30" customHeight="1">
       <c r="A57" s="7"/>
@@ -3083,8 +4013,8 @@
       <c r="O57" s="16"/>
       <c r="P57" s="17"/>
       <c r="Q57" s="7"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="40"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="19"/>
     </row>
     <row r="58" spans="1:19" ht="30" customHeight="1">
       <c r="A58" s="7"/>
@@ -3106,8 +4036,8 @@
       <c r="O58" s="16"/>
       <c r="P58" s="17"/>
       <c r="Q58" s="7"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="40"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="19"/>
     </row>
     <row r="59" spans="1:19" ht="30" customHeight="1">
       <c r="A59" s="7"/>
@@ -3129,8 +4059,8 @@
       <c r="O59" s="16"/>
       <c r="P59" s="17"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="40"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="19"/>
     </row>
     <row r="60" spans="1:19" ht="30" customHeight="1">
       <c r="A60" s="7"/>
@@ -3152,8 +4082,8 @@
       <c r="O60" s="16"/>
       <c r="P60" s="17"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="40"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="19"/>
     </row>
     <row r="61" spans="1:19" ht="30" customHeight="1">
       <c r="A61" s="7"/>
@@ -3173,8 +4103,8 @@
       <c r="O61" s="16"/>
       <c r="P61" s="17"/>
       <c r="Q61" s="7"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
     </row>
     <row r="62" spans="1:19" ht="30" customHeight="1">
       <c r="A62" s="7"/>
@@ -3202,8 +4132,8 @@
       <c r="O62" s="16"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="8"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
     </row>
     <row r="63" spans="1:19" ht="30" customHeight="1">
       <c r="A63" s="7"/>
@@ -3223,8 +4153,8 @@
       <c r="O63" s="16"/>
       <c r="P63" s="17"/>
       <c r="Q63" s="8"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
     </row>
     <row r="64" spans="1:19" ht="30" customHeight="1">
       <c r="A64" s="7">
@@ -3248,8 +4178,8 @@
       <c r="O64" s="16"/>
       <c r="P64" s="17"/>
       <c r="Q64" s="8"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
     </row>
     <row r="65" spans="1:19" ht="30" customHeight="1">
       <c r="A65" s="7"/>
@@ -3269,8 +4199,8 @@
       <c r="O65" s="16"/>
       <c r="P65" s="17"/>
       <c r="Q65" s="8"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
     </row>
     <row r="66" spans="1:19" ht="30" customHeight="1">
       <c r="A66" s="7"/>
@@ -3294,8 +4224,8 @@
       <c r="O66" s="16"/>
       <c r="P66" s="17"/>
       <c r="Q66" s="8"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
     </row>
     <row r="67" spans="1:19" ht="30" customHeight="1">
       <c r="A67" s="7"/>
@@ -3317,8 +4247,8 @@
       <c r="O67" s="16"/>
       <c r="P67" s="17"/>
       <c r="Q67" s="8"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
     </row>
     <row r="68" spans="1:19" ht="30" customHeight="1">
       <c r="A68" s="7"/>
@@ -3340,8 +4270,8 @@
       <c r="O68" s="16"/>
       <c r="P68" s="17"/>
       <c r="Q68" s="8"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
     </row>
     <row r="69" spans="1:19" ht="30" customHeight="1">
       <c r="A69" s="7"/>
@@ -3361,8 +4291,8 @@
       <c r="O69" s="16"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="7"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
     </row>
     <row r="70" spans="1:19" ht="50.25" customHeight="1">
       <c r="A70" s="7"/>
@@ -3384,14 +4314,14 @@
       <c r="K70" s="11"/>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
-      <c r="N70" s="19" t="s">
+      <c r="N70" s="21" t="s">
         <v>76</v>
       </c>
       <c r="O70" s="16"/>
       <c r="P70" s="17"/>
       <c r="Q70" s="8"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
     </row>
     <row r="71" spans="1:19" ht="30" customHeight="1">
       <c r="A71" s="7"/>
@@ -3411,8 +4341,8 @@
       <c r="O71" s="16"/>
       <c r="P71" s="17"/>
       <c r="Q71" s="8"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
     </row>
     <row r="72" spans="1:19" ht="30" customHeight="1">
       <c r="A72" s="7"/>
@@ -3432,8 +4362,8 @@
       <c r="O72" s="16"/>
       <c r="P72" s="17"/>
       <c r="Q72" s="8"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
     </row>
     <row r="73" spans="1:19" ht="30" customHeight="1">
       <c r="A73" s="7"/>
@@ -3453,8 +4383,8 @@
       <c r="O73" s="16"/>
       <c r="P73" s="17"/>
       <c r="Q73" s="8"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
     </row>
     <row r="74" spans="1:19" ht="30" customHeight="1">
       <c r="A74" s="7"/>
@@ -3474,11 +4404,280 @@
       <c r="O74" s="16"/>
       <c r="P74" s="17"/>
       <c r="Q74" s="7"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="293">
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:M74"/>
+    <mergeCell ref="N74:P74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:M57"/>
+    <mergeCell ref="N57:P57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:M56"/>
+    <mergeCell ref="N56:P56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:M60"/>
+    <mergeCell ref="N60:P60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:M59"/>
+    <mergeCell ref="N59:P59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:M58"/>
+    <mergeCell ref="N58:P58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:M52"/>
+    <mergeCell ref="N52:P52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="N50:P50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:M73"/>
+    <mergeCell ref="N73:P73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:M72"/>
+    <mergeCell ref="N72:P72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:M71"/>
+    <mergeCell ref="N71:P71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:M64"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:M68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:M70"/>
+    <mergeCell ref="N70:P70"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:M62"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="R66:S66"/>
     <mergeCell ref="C55:G55"/>
     <mergeCell ref="H55:M55"/>
     <mergeCell ref="N55:P55"/>
@@ -3503,277 +4702,50 @@
     <mergeCell ref="H51:M51"/>
     <mergeCell ref="N51:P51"/>
     <mergeCell ref="R51:S51"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="H62:M62"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="H65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="H64:M64"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="H63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:M67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:M68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:M70"/>
-    <mergeCell ref="N70:P70"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:M73"/>
-    <mergeCell ref="N73:P73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="H72:M72"/>
-    <mergeCell ref="N72:P72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:M71"/>
-    <mergeCell ref="N71:P71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:M52"/>
-    <mergeCell ref="N52:P52"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="H57:M57"/>
-    <mergeCell ref="N57:P57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:M56"/>
-    <mergeCell ref="N56:P56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="H61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="H60:M60"/>
-    <mergeCell ref="N60:P60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="H59:M59"/>
-    <mergeCell ref="N59:P59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="H58:M58"/>
-    <mergeCell ref="N58:P58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:M74"/>
-    <mergeCell ref="N74:P74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E5607E-3192-4E2D-B8FC-6A212E130256}">
+  <dimension ref="A46:A425"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>